--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H2">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I2">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J2">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N2">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O2">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P2">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q2">
-        <v>3458.582540558035</v>
+        <v>3739.203836007563</v>
       </c>
       <c r="R2">
-        <v>3458.582540558035</v>
+        <v>22435.22301604538</v>
       </c>
       <c r="S2">
-        <v>0.1106088003273442</v>
+        <v>0.1113538246260929</v>
       </c>
       <c r="T2">
-        <v>0.1106088003273442</v>
+        <v>0.07962069164677796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H3">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I3">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J3">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N3">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O3">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P3">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q3">
-        <v>2494.221401641323</v>
+        <v>2626.656344017839</v>
       </c>
       <c r="R3">
-        <v>2494.221401641323</v>
+        <v>15759.93806410703</v>
       </c>
       <c r="S3">
-        <v>0.07976760240680002</v>
+        <v>0.07822206082166235</v>
       </c>
       <c r="T3">
-        <v>0.07976760240680002</v>
+        <v>0.05593067508520667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H4">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I4">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J4">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N4">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q4">
-        <v>2452.816805695743</v>
+        <v>3.828968278383333</v>
       </c>
       <c r="R4">
-        <v>2452.816805695743</v>
+        <v>22.9738096703</v>
       </c>
       <c r="S4">
-        <v>0.07844344355505259</v>
+        <v>0.0001140270177475043</v>
       </c>
       <c r="T4">
-        <v>0.07844344355505259</v>
+        <v>8.153208971457551E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H5">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I5">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J5">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N5">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O5">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P5">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q5">
-        <v>1768.894655347657</v>
+        <v>1.21606802968</v>
       </c>
       <c r="R5">
-        <v>1768.894655347657</v>
+        <v>4.86427211872</v>
       </c>
       <c r="S5">
-        <v>0.05657095455697486</v>
+        <v>3.6214614674489E-05</v>
       </c>
       <c r="T5">
-        <v>0.05657095455697486</v>
+        <v>1.726288658568871E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H6">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I6">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J6">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N6">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O6">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P6">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q6">
-        <v>3439.908782459948</v>
+        <v>2733.982713003375</v>
       </c>
       <c r="R6">
-        <v>3439.908782459948</v>
+        <v>24605.84441703037</v>
       </c>
       <c r="S6">
-        <v>0.1100115955601857</v>
+        <v>0.08141824968804182</v>
       </c>
       <c r="T6">
-        <v>0.1100115955601857</v>
+        <v>0.08732404173721921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H7">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J7">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N7">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O7">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P7">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q7">
-        <v>2480.754472183625</v>
+        <v>1920.524623020549</v>
       </c>
       <c r="R7">
-        <v>2480.754472183625</v>
+        <v>17284.72160718494</v>
       </c>
       <c r="S7">
-        <v>0.07933691703383544</v>
+        <v>0.0571933950223651</v>
       </c>
       <c r="T7">
-        <v>0.07933691703383544</v>
+        <v>0.0613420017399344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H8">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J8">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N8">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q8">
-        <v>6531.298263220699</v>
+        <v>2.799615517327778</v>
       </c>
       <c r="R8">
-        <v>6531.298263220699</v>
+        <v>25.19653965595</v>
       </c>
       <c r="S8">
-        <v>0.2088772082213621</v>
+        <v>8.337280047023765E-05</v>
       </c>
       <c r="T8">
-        <v>0.2088772082213621</v>
+        <v>8.942036872454636E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H9">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J9">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N9">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O9">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P9">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q9">
-        <v>4710.167739989642</v>
+        <v>0.8891488982133333</v>
       </c>
       <c r="R9">
-        <v>4710.167739989642</v>
+        <v>5.33489338928</v>
       </c>
       <c r="S9">
-        <v>0.1506357003053488</v>
+        <v>2.647893370366424E-05</v>
       </c>
       <c r="T9">
-        <v>0.1506357003053488</v>
+        <v>1.893308130757196E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H10">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I10">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J10">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N10">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O10">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P10">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q10">
-        <v>2070.232344165053</v>
+        <v>3897.171734375315</v>
       </c>
       <c r="R10">
-        <v>2070.232344165053</v>
+        <v>35074.54560937783</v>
       </c>
       <c r="S10">
-        <v>0.06620802403923996</v>
+        <v>0.116058122766249</v>
       </c>
       <c r="T10">
-        <v>0.06620802403923996</v>
+        <v>0.1244765687694679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H11">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I11">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J11">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N11">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O11">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P11">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q11">
-        <v>1492.986724657848</v>
+        <v>2737.623116784591</v>
       </c>
       <c r="R11">
-        <v>1492.986724657848</v>
+        <v>24638.60805106132</v>
       </c>
       <c r="S11">
-        <v>0.0477471532289673</v>
+        <v>0.08152666123820071</v>
       </c>
       <c r="T11">
-        <v>0.0477471532289673</v>
+        <v>0.08744031707803218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.78997169000015</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H12">
-        <v>1.78997169000015</v>
+        <v>93.011927</v>
       </c>
       <c r="I12">
-        <v>0.01179260076488901</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J12">
-        <v>0.01179260076488901</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q12">
-        <v>214.2370720712305</v>
+        <v>3.990728401227778</v>
       </c>
       <c r="R12">
-        <v>214.2370720712305</v>
+        <v>35.91655561105</v>
       </c>
       <c r="S12">
-        <v>0.006851507879183996</v>
+        <v>0.0001188442486717077</v>
       </c>
       <c r="T12">
-        <v>0.006851507879183996</v>
+        <v>0.0001274647904001909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>31.00397566666667</v>
+      </c>
+      <c r="H13">
+        <v>93.011927</v>
+      </c>
+      <c r="I13">
+        <v>0.1977413728048684</v>
+      </c>
+      <c r="J13">
+        <v>0.2120713389099788</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.04088</v>
+      </c>
+      <c r="N13">
+        <v>0.08176</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P13">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q13">
+        <v>1.267442525253333</v>
+      </c>
+      <c r="R13">
+        <v>7.60465515152</v>
+      </c>
+      <c r="S13">
+        <v>3.774455174698492E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.698827207851771E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.78997169000015</v>
-      </c>
-      <c r="H13">
-        <v>1.78997169000015</v>
-      </c>
-      <c r="I13">
-        <v>0.01179260076488901</v>
-      </c>
-      <c r="J13">
-        <v>0.01179260076488901</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="N13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="O13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="P13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="Q13">
-        <v>154.5010662370431</v>
-      </c>
-      <c r="R13">
-        <v>154.5010662370431</v>
-      </c>
-      <c r="S13">
-        <v>0.004941092885705012</v>
-      </c>
-      <c r="T13">
-        <v>0.004941092885705012</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H14">
+        <v>164.044102</v>
+      </c>
+      <c r="I14">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J14">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N14">
+        <v>377.09729</v>
+      </c>
+      <c r="O14">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P14">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q14">
+        <v>6873.398478298176</v>
+      </c>
+      <c r="R14">
+        <v>61860.58630468359</v>
+      </c>
+      <c r="S14">
+        <v>0.2046904213584897</v>
+      </c>
+      <c r="T14">
+        <v>0.2195379410194201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H15">
+        <v>164.044102</v>
+      </c>
+      <c r="I15">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J15">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.299099</v>
+      </c>
+      <c r="N15">
+        <v>264.897297</v>
+      </c>
+      <c r="O15">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P15">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q15">
+        <v>4828.315467621366</v>
+      </c>
+      <c r="R15">
+        <v>43454.8392085923</v>
+      </c>
+      <c r="S15">
+        <v>0.1437876664127047</v>
+      </c>
+      <c r="T15">
+        <v>0.1542175154984269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H16">
+        <v>164.044102</v>
+      </c>
+      <c r="I16">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J16">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.38615</v>
+      </c>
+      <c r="O16">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P16">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q16">
+        <v>7.038403331922223</v>
+      </c>
+      <c r="R16">
+        <v>63.3456299873</v>
+      </c>
+      <c r="S16">
+        <v>0.0002096042806554796</v>
+      </c>
+      <c r="T16">
+        <v>0.0002248082343011509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H17">
+        <v>164.044102</v>
+      </c>
+      <c r="I17">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J17">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.04088</v>
+      </c>
+      <c r="N17">
+        <v>0.08176</v>
+      </c>
+      <c r="O17">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P17">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q17">
+        <v>2.235374296586667</v>
+      </c>
+      <c r="R17">
+        <v>13.41224577952</v>
+      </c>
+      <c r="S17">
+        <v>6.656964645756316E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.759891554178972E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.571287</v>
+      </c>
+      <c r="H18">
+        <v>52.713861</v>
+      </c>
+      <c r="I18">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J18">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N18">
+        <v>377.09729</v>
+      </c>
+      <c r="O18">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P18">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q18">
+        <v>2208.694903170744</v>
+      </c>
+      <c r="R18">
+        <v>19878.25412853669</v>
+      </c>
+      <c r="S18">
+        <v>0.06577513173575028</v>
+      </c>
+      <c r="T18">
+        <v>0.07054622730126506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.571287</v>
+      </c>
+      <c r="H19">
+        <v>52.713861</v>
+      </c>
+      <c r="I19">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J19">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.299099</v>
+      </c>
+      <c r="N19">
+        <v>264.897297</v>
+      </c>
+      <c r="O19">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P19">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q19">
+        <v>1551.528810370413</v>
+      </c>
+      <c r="R19">
+        <v>13963.75929333372</v>
+      </c>
+      <c r="S19">
+        <v>0.04620466672306016</v>
+      </c>
+      <c r="T19">
+        <v>0.04955618993086031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.571287</v>
+      </c>
+      <c r="H20">
+        <v>52.713861</v>
+      </c>
+      <c r="I20">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J20">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.38615</v>
+      </c>
+      <c r="O20">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P20">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q20">
+        <v>2.261717491683334</v>
+      </c>
+      <c r="R20">
+        <v>20.35545742515</v>
+      </c>
+      <c r="S20">
+        <v>6.735414916336304E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.223978107183823E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.571287</v>
+      </c>
+      <c r="H21">
+        <v>52.713861</v>
+      </c>
+      <c r="I21">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J21">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.04088</v>
+      </c>
+      <c r="N21">
+        <v>0.08176</v>
+      </c>
+      <c r="O21">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P21">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q21">
+        <v>0.7183142125600001</v>
+      </c>
+      <c r="R21">
+        <v>4.30988527536</v>
+      </c>
+      <c r="S21">
+        <v>2.13914614874915E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.529541499529586E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.0364265</v>
+      </c>
+      <c r="H22">
+        <v>4.072853</v>
+      </c>
+      <c r="I22">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J22">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N22">
+        <v>377.09729</v>
+      </c>
+      <c r="O22">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P22">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q22">
+        <v>255.9769714780617</v>
+      </c>
+      <c r="R22">
+        <v>1535.86182886837</v>
+      </c>
+      <c r="S22">
+        <v>0.007623017102143564</v>
+      </c>
+      <c r="T22">
+        <v>0.005450642545470902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.0364265</v>
+      </c>
+      <c r="H23">
+        <v>4.072853</v>
+      </c>
+      <c r="I23">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J23">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>88.299099</v>
+      </c>
+      <c r="N23">
+        <v>264.897297</v>
+      </c>
+      <c r="O23">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P23">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q23">
+        <v>179.8146251297235</v>
+      </c>
+      <c r="R23">
+        <v>1078.887750778341</v>
+      </c>
+      <c r="S23">
+        <v>0.005354895616838304</v>
+      </c>
+      <c r="T23">
+        <v>0.003828880544881246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.0364265</v>
+      </c>
+      <c r="H24">
+        <v>4.072853</v>
+      </c>
+      <c r="I24">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J24">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.38615</v>
+      </c>
+      <c r="O24">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P24">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q24">
+        <v>0.2621220309916667</v>
+      </c>
+      <c r="R24">
+        <v>1.57273218595</v>
+      </c>
+      <c r="S24">
+        <v>7.806017523999541E-06</v>
+      </c>
+      <c r="T24">
+        <v>5.581492295883612E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.0364265</v>
+      </c>
+      <c r="H25">
+        <v>4.072853</v>
+      </c>
+      <c r="I25">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J25">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.04088</v>
+      </c>
+      <c r="N25">
+        <v>0.08176</v>
+      </c>
+      <c r="O25">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P25">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q25">
+        <v>0.08324911532000001</v>
+      </c>
+      <c r="R25">
+        <v>0.33299646128</v>
+      </c>
+      <c r="S25">
+        <v>2.47916609903743E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.181776019970074E-06</v>
       </c>
     </row>
   </sheetData>
